--- a/production/MBM_V0.41_BOM.xlsx
+++ b/production/MBM_V0.41_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA2\Documents\KiCad\MultiBoardMini_HW\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TA\Documents\KiCad\MultiBoardMini_HW\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416E2A55-F733-4D0D-90F5-84E6FA3ECDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4DFB47-9332-46B2-88C3-E011ACC065D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3915" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ESP32-WROOM-32</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -64,15 +61,7 @@
     <t>U6</t>
   </si>
   <si>
-    <t>ESP32-WROOM-32-N16</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>MCP2562-E/SN</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>C529581</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -92,7 +81,6 @@
         <sz val="11"/>
         <color rgb="FFAFABAB"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>（</t>
     </r>
@@ -110,7 +98,6 @@
         <sz val="11"/>
         <color rgb="FFAFABAB"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>）</t>
     </r>
@@ -211,6 +198,18 @@
   </si>
   <si>
     <t>C965132</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C701343</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ESP32-WROOM-32E-N16</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -248,7 +247,6 @@
       <sz val="11"/>
       <color rgb="FFAFABAB"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
@@ -300,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,7 +672,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -693,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -707,29 +708,29 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>2</v>
@@ -738,10 +739,10 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>2</v>
@@ -753,7 +754,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -765,21 +766,21 @@
         <v>510</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
@@ -788,30 +789,30 @@
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -822,66 +823,66 @@
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
